--- a/TIMES-NZ/SuppXLS/Scen_WEM_WCM.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_WEM_WCM.xlsx
@@ -426,12 +426,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: NI,SI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: NI,SI</t>
         </is>
       </c>
     </row>
@@ -1474,12 +1474,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: SI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>~UC_T: SI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: SI</t>
         </is>
       </c>
     </row>
